--- a/my_rank/区块链.xlsx
+++ b/my_rank/区块链.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11343</v>
+        <v>22130</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82932545343387</v>
+        <v>0.725445907002103</v>
       </c>
       <c r="E2" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8804</v>
+        <v>14381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5706134094151213</v>
+        <v>0.4236700677622868</v>
       </c>
       <c r="E3" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7299</v>
+        <v>11279</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4172610556348074</v>
+        <v>0.3028662668432121</v>
       </c>
       <c r="E4" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9154</v>
+        <v>15421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6062767475035663</v>
+        <v>0.4641716644598489</v>
       </c>
       <c r="E5" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6663</v>
+        <v>10317</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3524556755655187</v>
+        <v>0.2654022898979672</v>
       </c>
       <c r="E6" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7485</v>
+        <v>11984</v>
       </c>
       <c r="D7" t="n">
-        <v>0.436213572447524</v>
+        <v>0.3303216761430018</v>
       </c>
       <c r="E7" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10852</v>
+        <v>20352</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7792948848583656</v>
+        <v>0.6562037541864632</v>
       </c>
       <c r="E8" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10864</v>
+        <v>19787</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7805176278785408</v>
+        <v>0.6342004829036529</v>
       </c>
       <c r="E9" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8997</v>
+        <v>15198</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5902791929896067</v>
+        <v>0.4554871874756601</v>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11339</v>
+        <v>19665</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8289178724271449</v>
+        <v>0.629449334060285</v>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6807</v>
+        <v>10843</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3671285918076218</v>
+        <v>0.2858867513046187</v>
       </c>
       <c r="E12" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9909</v>
+        <v>18916</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6832076625229264</v>
+        <v>0.6002803956694447</v>
       </c>
       <c r="E13" t="n">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11756</v>
+        <v>23696</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8714081923782352</v>
+        <v>0.7864319651063167</v>
       </c>
       <c r="E14" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9997</v>
+        <v>19173</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6921744446708783</v>
+        <v>0.6102889633148999</v>
       </c>
       <c r="E15" t="n">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12020</v>
+        <v>25076</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8983085388220909</v>
+        <v>0.8401744684165433</v>
       </c>
       <c r="E16" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6451</v>
+        <v>11587</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3308538822090891</v>
+        <v>0.314860970480567</v>
       </c>
       <c r="E17" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4648</v>
+        <v>7113</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1471367434277563</v>
+        <v>0.1406262169950931</v>
       </c>
       <c r="E18" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11746</v>
+        <v>21398</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8703892398614225</v>
+        <v>0.6969390139418958</v>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9599</v>
+        <v>16228</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6516201345017322</v>
+        <v>0.4955993457434379</v>
       </c>
       <c r="E20" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10555</v>
+        <v>17142</v>
       </c>
       <c r="D21" t="n">
-        <v>0.749031995109028</v>
+        <v>0.5311940182257185</v>
       </c>
       <c r="E21" t="n">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11638</v>
+        <v>21137</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8593845526798451</v>
+        <v>0.6867746709245268</v>
       </c>
       <c r="E22" t="n">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12196</v>
+        <v>23609</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9162421031179947</v>
+        <v>0.7830438507671937</v>
       </c>
       <c r="E23" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12114</v>
+        <v>25506</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9078866924801304</v>
+        <v>0.8569203208972661</v>
       </c>
       <c r="E24" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8931</v>
+        <v>14355</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5835541063786428</v>
+        <v>0.4226575278448477</v>
       </c>
       <c r="E25" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11965</v>
+        <v>21934</v>
       </c>
       <c r="D26" t="n">
-        <v>0.892704299979621</v>
+        <v>0.7178129137783317</v>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11916</v>
+        <v>23016</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8877114326472386</v>
+        <v>0.7599501518809876</v>
       </c>
       <c r="E27" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10941</v>
+        <v>21142</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7883635622579988</v>
+        <v>0.6869693901394189</v>
       </c>
       <c r="E28" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11632</v>
+        <v>22810</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8587731811697575</v>
+        <v>0.751927720227432</v>
       </c>
       <c r="E29" t="n">
         <v>80</v>
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8492</v>
+        <v>16432</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5388220908905645</v>
+        <v>0.5035438897110367</v>
       </c>
       <c r="E30" t="n">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12110</v>
+        <v>24440</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9074791114734053</v>
+        <v>0.815406184282265</v>
       </c>
       <c r="E31" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10624</v>
+        <v>19353</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7560627674750356</v>
+        <v>0.6172988550510164</v>
       </c>
       <c r="E32" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11542</v>
+        <v>22553</v>
       </c>
       <c r="D33" t="n">
-        <v>0.849602608518443</v>
+        <v>0.7419191525819768</v>
       </c>
       <c r="E33" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11642</v>
+        <v>22865</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8597921336865703</v>
+        <v>0.7540696315912454</v>
       </c>
       <c r="E34" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12093</v>
+        <v>24590</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9057468921948237</v>
+        <v>0.8212477607290287</v>
       </c>
       <c r="E35" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12379</v>
+        <v>25098</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9348889341756674</v>
+        <v>0.8410312329620687</v>
       </c>
       <c r="E36" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12333</v>
+        <v>24815</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9302017525983289</v>
+        <v>0.8300101253991744</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10942</v>
+        <v>19924</v>
       </c>
       <c r="D38" t="n">
-        <v>0.78846545750968</v>
+        <v>0.6395357893916972</v>
       </c>
       <c r="E38" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6685</v>
+        <v>11116</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3546973711025066</v>
+        <v>0.2965184204377288</v>
       </c>
       <c r="E39" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10234</v>
+        <v>18355</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7163236193193397</v>
+        <v>0.5784328997585482</v>
       </c>
       <c r="E40" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5634</v>
+        <v>8788</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2476054615854901</v>
+        <v>0.2058571539839551</v>
       </c>
       <c r="E41" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11626</v>
+        <v>16436</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8581618096596698</v>
+        <v>0.5036996650829504</v>
       </c>
       <c r="E42" t="n">
-        <v>81</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5920</v>
+        <v>9017</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2767475035663338</v>
+        <v>0.2147752940260145</v>
       </c>
       <c r="E43" t="n">
         <v>233</v>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10693</v>
+        <v>20326</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7630935398410434</v>
+        <v>0.655191214269024</v>
       </c>
       <c r="E44" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11561</v>
+        <v>24484</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8515386183003872</v>
+        <v>0.8171197133733157</v>
       </c>
       <c r="E45" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10971</v>
+        <v>21371</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7914204198084369</v>
+        <v>0.6958875301814783</v>
       </c>
       <c r="E46" t="n">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9148</v>
+        <v>17117</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6056653759934787</v>
+        <v>0.5302204221512579</v>
       </c>
       <c r="E47" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48">
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10741</v>
+        <v>19781</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7679845119217444</v>
+        <v>0.6339668198457824</v>
       </c>
       <c r="E48" t="n">
         <v>132</v>
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12121</v>
+        <v>23971</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9085999592418993</v>
+        <v>0.7971415219253836</v>
       </c>
       <c r="E49" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12338</v>
+        <v>25343</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9307112288567353</v>
+        <v>0.8505724744917829</v>
       </c>
       <c r="E50" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10324</v>
+        <v>19759</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7254941919706541</v>
+        <v>0.633110055300257</v>
       </c>
       <c r="E51" t="n">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>12354</v>
+        <v>24245</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9323415528836356</v>
+        <v>0.8078121349014721</v>
       </c>
       <c r="E52" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10572</v>
+        <v>18235</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7507642143876095</v>
+        <v>0.5737596386011372</v>
       </c>
       <c r="E53" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>12284</v>
+        <v>24785</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9252088852659466</v>
+        <v>0.8288418101098216</v>
       </c>
       <c r="E54" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6255</v>
+        <v>10405</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3108824128795598</v>
+        <v>0.2688293480800685</v>
       </c>
       <c r="E55" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>11299</v>
+        <v>23052</v>
       </c>
       <c r="D56" t="n">
-        <v>0.824842062359894</v>
+        <v>0.7613521302282109</v>
       </c>
       <c r="E56" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11799</v>
+        <v>23691</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8757896882005298</v>
+        <v>0.7862372458914245</v>
       </c>
       <c r="E57" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -1530,13 +1530,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8769</v>
+        <v>16068</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5670470756062768</v>
+        <v>0.48936833086689</v>
       </c>
       <c r="E58" t="n">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59">
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9469</v>
+        <v>14971</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6383737517831669</v>
+        <v>0.4466469351195576</v>
       </c>
       <c r="E59" t="n">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60">
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11856</v>
+        <v>23110</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8815977175463623</v>
+        <v>0.7636108731209595</v>
       </c>
       <c r="E60" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3833</v>
+        <v>6206</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06409211330751986</v>
+        <v>0.1053041514136615</v>
       </c>
       <c r="E61" t="n">
         <v>241</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10988</v>
+        <v>20839</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7931526390870185</v>
+        <v>0.6751694057169562</v>
       </c>
       <c r="E62" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12379</v>
+        <v>25674</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9348889341756674</v>
+        <v>0.8634628865176416</v>
       </c>
       <c r="E63" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9710</v>
+        <v>16357</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6629305074383534</v>
+        <v>0.5006231014876548</v>
       </c>
       <c r="E64" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12948</v>
+        <v>29180</v>
       </c>
       <c r="D65" t="n">
-        <v>0.992867332382311</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12272</v>
+        <v>25188</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9239861422457714</v>
+        <v>0.844536178830127</v>
       </c>
       <c r="E66" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3219</v>
+        <v>3729</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001528428775219075</v>
+        <v>0.0088402523561025</v>
       </c>
       <c r="E67" t="n">
         <v>243</v>
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12569</v>
+        <v>24426</v>
       </c>
       <c r="D68" t="n">
-        <v>0.954249031995109</v>
+        <v>0.814860970480567</v>
       </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8337</v>
+        <v>13076</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5230283268799674</v>
+        <v>0.372848352675442</v>
       </c>
       <c r="E69" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4531</v>
+        <v>8126</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1352149989810475</v>
+        <v>0.1800763299322377</v>
       </c>
       <c r="E70" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3355</v>
+        <v>5305</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01538618300387202</v>
+        <v>0.07021574889010047</v>
       </c>
       <c r="E71" t="n">
         <v>242</v>
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8653</v>
+        <v>14037</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5552272264112492</v>
+        <v>0.4102733857777086</v>
       </c>
       <c r="E72" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73">
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8899</v>
+        <v>14171</v>
       </c>
       <c r="D73" t="n">
-        <v>0.580293458324842</v>
+        <v>0.4154918607368175</v>
       </c>
       <c r="E73" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3204</v>
+        <v>3502</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>11675</v>
+        <v>23682</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8631546769920522</v>
+        <v>0.7858867513046187</v>
       </c>
       <c r="E75" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7680</v>
+        <v>13056</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4560831465253719</v>
+        <v>0.3720694758158735</v>
       </c>
       <c r="E76" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77">
@@ -1891,13 +1891,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9548</v>
+        <v>15754</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6464234766659873</v>
+        <v>0.4771399641716644</v>
       </c>
       <c r="E77" t="n">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78">
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>10075</v>
+        <v>17367</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7001222743020176</v>
+        <v>0.5399563828958641</v>
       </c>
       <c r="E78" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9800</v>
+        <v>18328</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6721010800896678</v>
+        <v>0.5773814159981306</v>
       </c>
       <c r="E79" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80">
@@ -1948,13 +1948,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>11064</v>
+        <v>17186</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8008966782147952</v>
+        <v>0.5329075473167693</v>
       </c>
       <c r="E80" t="n">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>11078</v>
+        <v>22974</v>
       </c>
       <c r="D81" t="n">
-        <v>0.802323211738333</v>
+        <v>0.7583145104758937</v>
       </c>
       <c r="E81" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8642</v>
+        <v>15963</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5541063786427552</v>
+        <v>0.4852792273541553</v>
       </c>
       <c r="E82" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9267</v>
+        <v>16322</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61779091094355</v>
+        <v>0.4992600669834099</v>
       </c>
       <c r="E83" t="n">
         <v>177</v>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>11996</v>
+        <v>25826</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8958630527817404</v>
+        <v>0.8693823506503622</v>
       </c>
       <c r="E84" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -2043,13 +2043,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>11650</v>
+        <v>20851</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8606072957000204</v>
+        <v>0.6756367318326972</v>
       </c>
       <c r="E85" t="n">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11277</v>
+        <v>20662</v>
       </c>
       <c r="D86" t="n">
-        <v>0.822600366822906</v>
+        <v>0.6682763455097749</v>
       </c>
       <c r="E86" t="n">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>8223</v>
+        <v>12524</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5114122681883024</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="E87" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8969</v>
+        <v>17272</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5874261259425311</v>
+        <v>0.5362567178129137</v>
       </c>
       <c r="E88" t="n">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9805</v>
+        <v>18872</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6726105563480742</v>
+        <v>0.598566866578394</v>
       </c>
       <c r="E89" t="n">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>11088</v>
+        <v>22764</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8033421642551457</v>
+        <v>0.7501363034504245</v>
       </c>
       <c r="E90" t="n">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>11239</v>
+        <v>21702</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8187283472590178</v>
+        <v>0.708777942207337</v>
       </c>
       <c r="E91" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
@@ -2176,13 +2176,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>10856</v>
+        <v>17901</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7797024658650907</v>
+        <v>0.5607523950463432</v>
       </c>
       <c r="E92" t="n">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5674</v>
+        <v>7572</v>
       </c>
       <c r="D93" t="n">
-        <v>0.251681271652741</v>
+        <v>0.1585014409221902</v>
       </c>
       <c r="E93" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>8622</v>
+        <v>16328</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5520684736091298</v>
+        <v>0.4994937300412804</v>
       </c>
       <c r="E94" t="n">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>11445</v>
+        <v>20728</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8397187691053597</v>
+        <v>0.670846639146351</v>
       </c>
       <c r="E95" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>12975</v>
+        <v>28074</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9956185041777054</v>
+        <v>0.9569281096658618</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9978</v>
+        <v>19110</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6902384348889342</v>
+        <v>0.6078355012072592</v>
       </c>
       <c r="E97" t="n">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>12930</v>
+        <v>28438</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9910332178520481</v>
+        <v>0.9711036685100086</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -2309,13 +2309,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>11993</v>
+        <v>23490</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8955573670266965</v>
+        <v>0.7784095334527611</v>
       </c>
       <c r="E99" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12632</v>
+        <v>27695</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9606684328510291</v>
+        <v>0.9421683931770387</v>
       </c>
       <c r="E100" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11976</v>
+        <v>25425</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8938251477481149</v>
+        <v>0.8537658696160138</v>
       </c>
       <c r="E101" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7977</v>
+        <v>10839</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4863460362747096</v>
+        <v>0.285730975932705</v>
       </c>
       <c r="E102" t="n">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103">
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9112</v>
+        <v>17217</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6019971469329529</v>
+        <v>0.5341148064491004</v>
       </c>
       <c r="E103" t="n">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6078</v>
+        <v>9080</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2928469533319747</v>
+        <v>0.2172287561336553</v>
       </c>
       <c r="E104" t="n">
         <v>232</v>
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>11480</v>
+        <v>21579</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8432851029142042</v>
+        <v>0.7039878495209907</v>
       </c>
       <c r="E105" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>12616</v>
+        <v>27234</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9590381088241288</v>
+        <v>0.9242152815639847</v>
       </c>
       <c r="E106" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>12876</v>
+        <v>27066</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9855308742612594</v>
+        <v>0.9176727159436093</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -2480,13 +2480,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>10051</v>
+        <v>19358</v>
       </c>
       <c r="D108" t="n">
-        <v>0.697676788261667</v>
+        <v>0.6174935742659086</v>
       </c>
       <c r="E108" t="n">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
@@ -2499,13 +2499,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7594</v>
+        <v>11595</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4473201548807825</v>
+        <v>0.3151725212243944</v>
       </c>
       <c r="E109" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110">
@@ -2518,13 +2518,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>12417</v>
+        <v>26096</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9387609537395557</v>
+        <v>0.879897188254537</v>
       </c>
       <c r="E110" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7571</v>
+        <v>12361</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4449765640921133</v>
+        <v>0.3450035049458681</v>
       </c>
       <c r="E111" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112">
@@ -2556,13 +2556,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>12831</v>
+        <v>29012</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9809455879356022</v>
+        <v>0.9934574343796245</v>
       </c>
       <c r="E112" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>9439</v>
+        <v>17728</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6353168942327287</v>
+        <v>0.5540151102110756</v>
       </c>
       <c r="E113" t="n">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7703</v>
+        <v>12313</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4584267373140412</v>
+        <v>0.3431342004829037</v>
       </c>
       <c r="E114" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115">
@@ -2613,13 +2613,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>12069</v>
+        <v>22906</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9033014061544732</v>
+        <v>0.7556663291533608</v>
       </c>
       <c r="E115" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116">
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>11551</v>
+        <v>22368</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8505196657835745</v>
+        <v>0.7347145416309682</v>
       </c>
       <c r="E116" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>10545</v>
+        <v>19631</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7480130425922152</v>
+        <v>0.6281252433990187</v>
       </c>
       <c r="E117" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11309</v>
+        <v>21919</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8258610148767067</v>
+        <v>0.7172287561336552</v>
       </c>
       <c r="E118" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7160</v>
+        <v>10768</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4030976156511107</v>
+        <v>0.2829659630812368</v>
       </c>
       <c r="E119" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120">
@@ -2708,13 +2708,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9373</v>
+        <v>16766</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6285918076217648</v>
+        <v>0.5165511332658307</v>
       </c>
       <c r="E120" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7348</v>
+        <v>10945</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4222539229671897</v>
+        <v>0.2898590232884181</v>
       </c>
       <c r="E121" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122">
@@ -2746,13 +2746,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11302</v>
+        <v>22527</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8251477481149379</v>
+        <v>0.7409066126645377</v>
       </c>
       <c r="E122" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123">
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>12078</v>
+        <v>23112</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9042184634196047</v>
+        <v>0.7636887608069164</v>
       </c>
       <c r="E123" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124">
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>11468</v>
+        <v>22397</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8420623598940289</v>
+        <v>0.7358439130773424</v>
       </c>
       <c r="E124" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8831</v>
+        <v>14769</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5733645812105156</v>
+        <v>0.4387802788379157</v>
       </c>
       <c r="E125" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126">
@@ -2822,13 +2822,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7533</v>
+        <v>12787</v>
       </c>
       <c r="D126" t="n">
-        <v>0.441104544528225</v>
+        <v>0.3615935820546772</v>
       </c>
       <c r="E126" t="n">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127">
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>11854</v>
+        <v>23895</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8813939270429998</v>
+        <v>0.7941817898590233</v>
       </c>
       <c r="E127" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128">
@@ -2860,13 +2860,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8532</v>
+        <v>12621</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5428979009578153</v>
+        <v>0.3551289041202586</v>
       </c>
       <c r="E128" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129">
@@ -2879,13 +2879,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>12243</v>
+        <v>25810</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9210311799470144</v>
+        <v>0.8687592491627074</v>
       </c>
       <c r="E129" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
@@ -2898,13 +2898,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>8914</v>
+        <v>16195</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5818218871000611</v>
+        <v>0.4943141989251499</v>
       </c>
       <c r="E130" t="n">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131">
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>12478</v>
+        <v>25272</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9449765640921133</v>
+        <v>0.8478074616403146</v>
       </c>
       <c r="E131" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>10408</v>
+        <v>19681</v>
       </c>
       <c r="D132" t="n">
-        <v>0.734053393111881</v>
+        <v>0.6300724355479399</v>
       </c>
       <c r="E132" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4627</v>
+        <v>7508</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1449969431424496</v>
+        <v>0.156009034971571</v>
       </c>
       <c r="E133" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>12297</v>
+        <v>26493</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9265335235378032</v>
+        <v>0.8953578939169717</v>
       </c>
       <c r="E134" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>9042</v>
+        <v>17200</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5948644793152639</v>
+        <v>0.5334527611184672</v>
       </c>
       <c r="E135" t="n">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>11896</v>
+        <v>22320</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8856735276136132</v>
+        <v>0.7328452371680038</v>
       </c>
       <c r="E136" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137">
@@ -3031,13 +3031,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4657</v>
+        <v>7164</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1480538006928877</v>
+        <v>0.1426123529869928</v>
       </c>
       <c r="E137" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138">
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9084</v>
+        <v>14278</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5991440798858774</v>
+        <v>0.419658851935509</v>
       </c>
       <c r="E138" t="n">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139">
@@ -3069,13 +3069,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>11854</v>
+        <v>23551</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8813939270429998</v>
+        <v>0.7807851078744451</v>
       </c>
       <c r="E139" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140">
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>10676</v>
+        <v>19658</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7613613205624618</v>
+        <v>0.6291767271594361</v>
       </c>
       <c r="E140" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7066</v>
+        <v>10833</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3935194619930711</v>
+        <v>0.2854973128748345</v>
       </c>
       <c r="E141" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142">
@@ -3126,13 +3126,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>12502</v>
+        <v>27268</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9474220501324638</v>
+        <v>0.9255393722252512</v>
       </c>
       <c r="E142" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
@@ -3145,13 +3145,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8998</v>
+        <v>17211</v>
       </c>
       <c r="D143" t="n">
-        <v>0.590381088241288</v>
+        <v>0.5338811433912298</v>
       </c>
       <c r="E143" t="n">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144">
@@ -3164,13 +3164,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>10367</v>
+        <v>19194</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7298756877929489</v>
+        <v>0.6111067840174469</v>
       </c>
       <c r="E144" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145">
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8324</v>
+        <v>14407</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5217036886081109</v>
+        <v>0.4246826076797258</v>
       </c>
       <c r="E145" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>10995</v>
+        <v>21069</v>
       </c>
       <c r="D146" t="n">
-        <v>0.7938659058487875</v>
+        <v>0.684126489601994</v>
       </c>
       <c r="E146" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147">
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>10937</v>
+        <v>22942</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7879559812512736</v>
+        <v>0.7570683075005842</v>
       </c>
       <c r="E147" t="n">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7267</v>
+        <v>11329</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4140004075810067</v>
+        <v>0.3048134589921334</v>
       </c>
       <c r="E148" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149">
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>9084</v>
+        <v>15553</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5991440798858774</v>
+        <v>0.469312251733001</v>
       </c>
       <c r="E149" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>11289</v>
+        <v>19799</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8238231098430813</v>
+        <v>0.634667809019394</v>
       </c>
       <c r="E150" t="n">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>9781</v>
+        <v>15230</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6701650703077237</v>
+        <v>0.4567333904509697</v>
       </c>
       <c r="E151" t="n">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152">
@@ -3316,13 +3316,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>11905</v>
+        <v>24531</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8865905848787446</v>
+        <v>0.8189500739933017</v>
       </c>
       <c r="E152" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153">
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>11534</v>
+        <v>24059</v>
       </c>
       <c r="D153" t="n">
-        <v>0.8487874465049928</v>
+        <v>0.800568580107485</v>
       </c>
       <c r="E153" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154">
@@ -3354,13 +3354,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6891</v>
+        <v>11226</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3756877929488486</v>
+        <v>0.3008022431653555</v>
       </c>
       <c r="E154" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155">
@@ -3373,13 +3373,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>10849</v>
+        <v>20823</v>
       </c>
       <c r="D155" t="n">
-        <v>0.7789891991033218</v>
+        <v>0.6745463042293014</v>
       </c>
       <c r="E155" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="156">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>8921</v>
+        <v>12278</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5825351538618301</v>
+        <v>0.3417711659786588</v>
       </c>
       <c r="E156" t="n">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="157">
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>12537</v>
+        <v>26924</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9509883839413084</v>
+        <v>0.912142690240673</v>
       </c>
       <c r="E157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -3430,13 +3430,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>8164</v>
+        <v>13441</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5054004483391074</v>
+        <v>0.3870628553625672</v>
       </c>
       <c r="E158" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159">
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8883</v>
+        <v>12972</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5786631342979417</v>
+        <v>0.3687981930056858</v>
       </c>
       <c r="E159" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160">
@@ -3468,13 +3468,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>12130</v>
+        <v>25625</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9095170165070308</v>
+        <v>0.8615546382116988</v>
       </c>
       <c r="E160" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>10589</v>
+        <v>19800</v>
       </c>
       <c r="D161" t="n">
-        <v>0.7524964336661911</v>
+        <v>0.6347067528623724</v>
       </c>
       <c r="E161" t="n">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162">
@@ -3506,13 +3506,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>11493</v>
+        <v>21431</v>
       </c>
       <c r="D162" t="n">
-        <v>0.8446097411860607</v>
+        <v>0.6982241607601838</v>
       </c>
       <c r="E162" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163">
@@ -3525,13 +3525,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7167</v>
+        <v>12196</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4038108824128795</v>
+        <v>0.3385777708544279</v>
       </c>
       <c r="E163" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164">
@@ -3544,13 +3544,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>12289</v>
+        <v>22735</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9257183615243529</v>
+        <v>0.7490069320040501</v>
       </c>
       <c r="E164" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="165">
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>12668</v>
+        <v>28603</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9643366619115549</v>
+        <v>0.9775294026014487</v>
       </c>
       <c r="E165" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>9636</v>
+        <v>16320</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6553902588139393</v>
+        <v>0.4991821792974531</v>
       </c>
       <c r="E166" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>11055</v>
+        <v>19793</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7999796209496638</v>
+        <v>0.6344341459615235</v>
       </c>
       <c r="E167" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168">
@@ -3620,13 +3620,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>11963</v>
+        <v>24119</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8925005094762584</v>
+        <v>0.8029052106861905</v>
       </c>
       <c r="E168" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169">
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>10018</v>
+        <v>18552</v>
       </c>
       <c r="D169" t="n">
-        <v>0.694314244956185</v>
+        <v>0.5861048368252979</v>
       </c>
       <c r="E169" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>11536</v>
+        <v>24389</v>
       </c>
       <c r="D170" t="n">
-        <v>0.8489912370083554</v>
+        <v>0.8134200482903653</v>
       </c>
       <c r="E170" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171">
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>10612</v>
+        <v>20875</v>
       </c>
       <c r="D171" t="n">
-        <v>0.7548400244548604</v>
+        <v>0.6765713840641795</v>
       </c>
       <c r="E171" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172">
@@ -3696,13 +3696,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>12427</v>
+        <v>25870</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9397799062563684</v>
+        <v>0.8710958797414129</v>
       </c>
       <c r="E172" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173">
@@ -3715,13 +3715,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>12193</v>
+        <v>24511</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9159364173629508</v>
+        <v>0.8181711971337332</v>
       </c>
       <c r="E173" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174">
@@ -3734,13 +3734,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>12389</v>
+        <v>21339</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9359078866924802</v>
+        <v>0.6946413272061687</v>
       </c>
       <c r="E174" t="n">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175">
@@ -3753,13 +3753,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>10343</v>
+        <v>20033</v>
       </c>
       <c r="D175" t="n">
-        <v>0.7274302017525983</v>
+        <v>0.6437806682763455</v>
       </c>
       <c r="E175" t="n">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="176">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>7702</v>
+        <v>12349</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4583248420623599</v>
+        <v>0.3445361788301269</v>
       </c>
       <c r="E176" t="n">
         <v>213</v>
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>12753</v>
+        <v>23996</v>
       </c>
       <c r="D177" t="n">
-        <v>0.972997758304463</v>
+        <v>0.7981151179998442</v>
       </c>
       <c r="E177" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178">
@@ -3810,13 +3810,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>11097</v>
+        <v>21269</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8042592215202772</v>
+        <v>0.691915258197679</v>
       </c>
       <c r="E178" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179">
@@ -3829,13 +3829,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>11799</v>
+        <v>23782</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8757896882005298</v>
+        <v>0.7897811356024612</v>
       </c>
       <c r="E179" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180">
@@ -3848,13 +3848,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>10741</v>
+        <v>20476</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7679845119217444</v>
+        <v>0.6610327907157878</v>
       </c>
       <c r="E180" t="n">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="181">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>12081</v>
+        <v>21207</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9045241491746484</v>
+        <v>0.6895007399330166</v>
       </c>
       <c r="E181" t="n">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182">
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>10416</v>
+        <v>18952</v>
       </c>
       <c r="D182" t="n">
-        <v>0.7348685551253311</v>
+        <v>0.601682374016668</v>
       </c>
       <c r="E182" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183">
@@ -3905,13 +3905,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>12289</v>
+        <v>27424</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9257183615243529</v>
+        <v>0.9316146117298855</v>
       </c>
       <c r="E183" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
@@ -3924,13 +3924,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>11062</v>
+        <v>20069</v>
       </c>
       <c r="D184" t="n">
-        <v>0.8006928877114327</v>
+        <v>0.6451826466235688</v>
       </c>
       <c r="E184" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185">
@@ -3943,13 +3943,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8973</v>
+        <v>14648</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5878337069492562</v>
+        <v>0.4340680738375263</v>
       </c>
       <c r="E185" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186">
@@ -3962,13 +3962,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>12149</v>
+        <v>23453</v>
       </c>
       <c r="D186" t="n">
-        <v>0.911453026288975</v>
+        <v>0.7769686112625593</v>
       </c>
       <c r="E186" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187">
@@ -3981,13 +3981,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>11934</v>
+        <v>23489</v>
       </c>
       <c r="D187" t="n">
-        <v>0.8895455471775016</v>
+        <v>0.7783705896097827</v>
       </c>
       <c r="E187" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>8068</v>
+        <v>15036</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4956185041777053</v>
+        <v>0.4491782849131553</v>
       </c>
       <c r="E188" t="n">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189">
@@ -4019,13 +4019,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>12186</v>
+        <v>23355</v>
       </c>
       <c r="D189" t="n">
-        <v>0.915223150601182</v>
+        <v>0.7731521146506737</v>
       </c>
       <c r="E189" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190">
@@ -4038,13 +4038,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>10525</v>
+        <v>17522</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7459751375585898</v>
+        <v>0.5459926785575201</v>
       </c>
       <c r="E190" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191">
@@ -4057,13 +4057,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>10706</v>
+        <v>19793</v>
       </c>
       <c r="D191" t="n">
-        <v>0.7644181781128999</v>
+        <v>0.6344341459615235</v>
       </c>
       <c r="E191" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192">
@@ -4076,13 +4076,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>12454</v>
+        <v>26767</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9425310780517628</v>
+        <v>0.9060285068930602</v>
       </c>
       <c r="E192" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>9286</v>
+        <v>14715</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6197269207254942</v>
+        <v>0.4366773113170808</v>
       </c>
       <c r="E193" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194">
@@ -4114,13 +4114,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>9636</v>
+        <v>18656</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6553902588139393</v>
+        <v>0.5901549964950541</v>
       </c>
       <c r="E194" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195">
@@ -4133,13 +4133,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>11325</v>
+        <v>20584</v>
       </c>
       <c r="D195" t="n">
-        <v>0.827491338903607</v>
+        <v>0.6652387257574578</v>
       </c>
       <c r="E195" t="n">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="196">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9911</v>
+        <v>18936</v>
       </c>
       <c r="D196" t="n">
-        <v>0.683411453026289</v>
+        <v>0.6010592725290131</v>
       </c>
       <c r="E196" t="n">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
@@ -4171,13 +4171,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>11898</v>
+        <v>23048</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8858773181169758</v>
+        <v>0.7611963548562972</v>
       </c>
       <c r="E197" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="198">
@@ -4190,13 +4190,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>11928</v>
+        <v>25263</v>
       </c>
       <c r="D198" t="n">
-        <v>0.888934175667414</v>
+        <v>0.8474569670535088</v>
       </c>
       <c r="E198" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199">
@@ -4209,13 +4209,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>13018</v>
+        <v>28284</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>0.9651063166913311</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
@@ -4228,13 +4228,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8689</v>
+        <v>16178</v>
       </c>
       <c r="D200" t="n">
-        <v>0.558895455471775</v>
+        <v>0.4936521535945167</v>
       </c>
       <c r="E200" t="n">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="201">
@@ -4247,13 +4247,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>9350</v>
+        <v>16319</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6262482168330956</v>
+        <v>0.4991432354544746</v>
       </c>
       <c r="E201" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202">
@@ -4266,13 +4266,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>12232</v>
+        <v>25083</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9199103321785205</v>
+        <v>0.8404470753173923</v>
       </c>
       <c r="E202" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203">
@@ -4285,13 +4285,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>10173</v>
+        <v>17670</v>
       </c>
       <c r="D203" t="n">
-        <v>0.7101080089667822</v>
+        <v>0.551756367318327</v>
       </c>
       <c r="E203" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204">
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>12392</v>
+        <v>25085</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9362135724475239</v>
+        <v>0.8405249630033492</v>
       </c>
       <c r="E204" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205">
@@ -4323,13 +4323,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>10231</v>
+        <v>20032</v>
       </c>
       <c r="D205" t="n">
-        <v>0.7160179335642959</v>
+        <v>0.6437417244333671</v>
       </c>
       <c r="E205" t="n">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="206">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>12729</v>
+        <v>25200</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9705522722641124</v>
+        <v>0.8450035049458681</v>
       </c>
       <c r="E206" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>10882</v>
+        <v>21447</v>
       </c>
       <c r="D207" t="n">
-        <v>0.7823517424088038</v>
+        <v>0.6988472622478387</v>
       </c>
       <c r="E207" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208">
@@ -4380,13 +4380,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>12147</v>
+        <v>26224</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9112492357856123</v>
+        <v>0.8848820001557753</v>
       </c>
       <c r="E208" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>10588</v>
+        <v>18836</v>
       </c>
       <c r="D209" t="n">
-        <v>0.7523945384145099</v>
+        <v>0.5971648882311706</v>
       </c>
       <c r="E209" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="210">
@@ -4418,13 +4418,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>11869</v>
+        <v>24820</v>
       </c>
       <c r="D210" t="n">
-        <v>0.8829223558182189</v>
+        <v>0.8302048446140665</v>
       </c>
       <c r="E210" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>12102</v>
+        <v>22472</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9066639494599552</v>
+        <v>0.7387647013007244</v>
       </c>
       <c r="E211" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="212">
@@ -4456,13 +4456,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>12112</v>
+        <v>25640</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9076829019767679</v>
+        <v>0.8621387958563751</v>
       </c>
       <c r="E212" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213">
@@ -4475,13 +4475,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>11113</v>
+        <v>21118</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8058895455471775</v>
+        <v>0.6860347379079368</v>
       </c>
       <c r="E213" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="214">
@@ -4494,13 +4494,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>11154</v>
+        <v>21158</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8100672508661096</v>
+        <v>0.6875924916270738</v>
       </c>
       <c r="E214" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215">
@@ -4513,13 +4513,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>9630</v>
+        <v>16370</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6547788873038516</v>
+        <v>0.5011293714463744</v>
       </c>
       <c r="E215" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216">
@@ -4532,13 +4532,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>12059</v>
+        <v>24049</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9022824536376605</v>
+        <v>0.8001791416777008</v>
       </c>
       <c r="E216" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="217">
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>12740</v>
+        <v>27163</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9716731200326065</v>
+        <v>0.9214502687125166</v>
       </c>
       <c r="E217" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218">
@@ -4570,13 +4570,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>5072</v>
+        <v>8690</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1903403301406154</v>
+        <v>0.2020406573720695</v>
       </c>
       <c r="E218" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219">
@@ -4589,13 +4589,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>8229</v>
+        <v>15268</v>
       </c>
       <c r="D219" t="n">
-        <v>0.51202363969839</v>
+        <v>0.4582132564841498</v>
       </c>
       <c r="E219" t="n">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220">
@@ -4608,13 +4608,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>11575</v>
+        <v>23047</v>
       </c>
       <c r="D220" t="n">
-        <v>0.852965151823925</v>
+        <v>0.7611574110133188</v>
       </c>
       <c r="E220" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221">
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>11157</v>
+        <v>22939</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8103729366211535</v>
+        <v>0.7569514759716489</v>
       </c>
       <c r="E221" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222">
@@ -4646,13 +4646,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>10868</v>
+        <v>19792</v>
       </c>
       <c r="D222" t="n">
-        <v>0.780925208885266</v>
+        <v>0.6343952021185451</v>
       </c>
       <c r="E222" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223">
@@ -4665,13 +4665,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>12408</v>
+        <v>24985</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9378438964744243</v>
+        <v>0.8366305787055066</v>
       </c>
       <c r="E223" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224">
@@ -4684,13 +4684,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>12195</v>
+        <v>22289</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9161402078663134</v>
+        <v>0.7316379780356725</v>
       </c>
       <c r="E224" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225">
@@ -4703,13 +4703,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>11608</v>
+        <v>23462</v>
       </c>
       <c r="D225" t="n">
-        <v>0.856327695129407</v>
+        <v>0.7773191058493653</v>
       </c>
       <c r="E225" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>10298</v>
+        <v>18948</v>
       </c>
       <c r="D226" t="n">
-        <v>0.7228449154269411</v>
+        <v>0.6015265986447542</v>
       </c>
       <c r="E226" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="227">
@@ -4741,13 +4741,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>12822</v>
+        <v>25138</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9800285306704708</v>
+        <v>0.8425889866812057</v>
       </c>
       <c r="E227" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -4760,13 +4760,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>11107</v>
+        <v>18347</v>
       </c>
       <c r="D228" t="n">
-        <v>0.8052781740370899</v>
+        <v>0.5781213490147208</v>
       </c>
       <c r="E228" t="n">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="229">
@@ -4779,13 +4779,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>10481</v>
+        <v>19316</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7414917464846138</v>
+        <v>0.6158579328608147</v>
       </c>
       <c r="E229" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="230">
@@ -4798,13 +4798,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>8290</v>
+        <v>14413</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5182392500509476</v>
+        <v>0.4249162707375964</v>
       </c>
       <c r="E230" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="231">
@@ -4817,13 +4817,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>11516</v>
+        <v>21749</v>
       </c>
       <c r="D231" t="n">
-        <v>0.84695333197473</v>
+        <v>0.710608302827323</v>
       </c>
       <c r="E231" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="232">
@@ -4836,13 +4836,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>8470</v>
+        <v>13942</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5365803953535765</v>
+        <v>0.4065737206947582</v>
       </c>
       <c r="E232" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233">
@@ -4855,13 +4855,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>9283</v>
+        <v>16663</v>
       </c>
       <c r="D233" t="n">
-        <v>0.6194212349704504</v>
+        <v>0.5125399174390529</v>
       </c>
       <c r="E233" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="234">
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>10667</v>
+        <v>17356</v>
       </c>
       <c r="D234" t="n">
-        <v>0.7604442632973304</v>
+        <v>0.5395280006231015</v>
       </c>
       <c r="E234" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="235">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>7231</v>
+        <v>10748</v>
       </c>
       <c r="D235" t="n">
-        <v>0.4103321785204809</v>
+        <v>0.2821870862216684</v>
       </c>
       <c r="E235" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>11157</v>
+        <v>18551</v>
       </c>
       <c r="D236" t="n">
-        <v>0.8103729366211535</v>
+        <v>0.5860658929823195</v>
       </c>
       <c r="E236" t="n">
-        <v>107</v>
+        <v>152</v>
       </c>
     </row>
     <row r="237">
@@ -4931,13 +4931,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>11599</v>
+        <v>24083</v>
       </c>
       <c r="D237" t="n">
-        <v>0.8554106378642755</v>
+        <v>0.8015032323389673</v>
       </c>
       <c r="E237" t="n">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238">
@@ -4950,13 +4950,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>12326</v>
+        <v>24192</v>
       </c>
       <c r="D238" t="n">
-        <v>0.92948848583656</v>
+        <v>0.8057481112236156</v>
       </c>
       <c r="E238" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239">
@@ -4969,13 +4969,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>11029</v>
+        <v>22771</v>
       </c>
       <c r="D239" t="n">
-        <v>0.7973303444059506</v>
+        <v>0.7504089103512734</v>
       </c>
       <c r="E239" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240">
@@ -4988,13 +4988,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>12462</v>
+        <v>26873</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9433462400652129</v>
+        <v>0.9101565542487733</v>
       </c>
       <c r="E240" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>10904</v>
+        <v>21918</v>
       </c>
       <c r="D241" t="n">
-        <v>0.7845934379457917</v>
+        <v>0.7171898122906768</v>
       </c>
       <c r="E241" t="n">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="242">
@@ -5026,13 +5026,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>8782</v>
+        <v>15803</v>
       </c>
       <c r="D242" t="n">
-        <v>0.5683717138781332</v>
+        <v>0.4790482124776073</v>
       </c>
       <c r="E242" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="243">
@@ -5045,13 +5045,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>11574</v>
+        <v>21190</v>
       </c>
       <c r="D243" t="n">
-        <v>0.8528632565722437</v>
+        <v>0.6888386946023833</v>
       </c>
       <c r="E243" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="244">
@@ -5064,13 +5064,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>12073</v>
+        <v>23747</v>
       </c>
       <c r="D244" t="n">
-        <v>0.9037089871611983</v>
+        <v>0.7884181010982164</v>
       </c>
       <c r="E244" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245">
@@ -5083,13 +5083,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11206</v>
+        <v>21721</v>
       </c>
       <c r="D245" t="n">
-        <v>0.8153658039535358</v>
+        <v>0.7095178752239271</v>
       </c>
       <c r="E245" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
